--- a/src/test/resources/output/EdgeCases.xlsx
+++ b/src/test/resources/output/EdgeCases.xlsx
@@ -119,7 +119,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Generated on: Tue Mar 10 00:59:15 IST 2020</t>
+          <t>Generated on: Fri Mar 26 23:51:27 WEST 2021</t>
         </is>
       </c>
     </row>
@@ -149,38 +149,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>43727.395833333336</v>
-      </c>
-      <c r="B5" s="7" t="n">
-        <v>43488.510150462964</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>43425.0</v>
-      </c>
-      <c r="B6" s="7" t="n">
-        <v>35960.0</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>-9826382.76</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>2.88E-6</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="C7"/>
+      <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" s="6"/>
